--- a/xlsx/country_comparison/radical_redistr_some_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_some_share.xlsx
@@ -452,7 +452,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.693996120467564</v>
+        <v>0.693991148793208</v>
       </c>
       <c r="C2" t="n">
         <v>0.727267133682238</v>
@@ -482,7 +482,7 @@
         <v>0.691681993781983</v>
       </c>
       <c r="L2" t="n">
-        <v>0.754855071318372</v>
+        <v>0.754180914635801</v>
       </c>
       <c r="M2" t="n">
         <v>0.817345461694808</v>
@@ -496,7 +496,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.641188431291775</v>
+        <v>0.641501546421187</v>
       </c>
       <c r="C3" t="n">
         <v>0.663594295554775</v>
@@ -526,7 +526,7 @@
         <v>0.550394111458431</v>
       </c>
       <c r="L3" t="n">
-        <v>0.756622372880961</v>
+        <v>0.759131699735939</v>
       </c>
       <c r="M3" t="n">
         <v>0.816920760799125</v>
@@ -540,7 +540,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.680881448179833</v>
+        <v>0.680815013747804</v>
       </c>
       <c r="C4" t="n">
         <v>0.701539116816613</v>
@@ -561,7 +561,7 @@
         <v>0.731116681894394</v>
       </c>
       <c r="I4" t="n">
-        <v>0.683377424047149</v>
+        <v>0.68337742404715</v>
       </c>
       <c r="J4" t="n">
         <v>0.659704988708263</v>
@@ -570,7 +570,7 @@
         <v>0.759539408850822</v>
       </c>
       <c r="L4" t="n">
-        <v>0.690381293922693</v>
+        <v>0.689906588508866</v>
       </c>
       <c r="M4" t="n">
         <v>0.721853509181885</v>
@@ -584,7 +584,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.704965329416964</v>
+        <v>0.704960018034767</v>
       </c>
       <c r="C5" t="n">
         <v>0.780310385878786</v>
@@ -614,7 +614,7 @@
         <v>0.703874631903231</v>
       </c>
       <c r="L5" t="n">
-        <v>0.777916745185535</v>
+        <v>0.777883926828007</v>
       </c>
       <c r="M5" t="n">
         <v>0.92816201896394</v>
@@ -628,7 +628,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.592122368373113</v>
+        <v>0.591975291077805</v>
       </c>
       <c r="C6" t="n">
         <v>0.609896497471146</v>
@@ -658,7 +658,7 @@
         <v>0.586217425103406</v>
       </c>
       <c r="L6" t="n">
-        <v>0.573818682809178</v>
+        <v>0.572781630922761</v>
       </c>
       <c r="M6" t="n">
         <v>0.887006592651732</v>
